--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-15.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1548"/>
+  <dimension ref="A1:G1549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42659,6 +42659,27 @@
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
     </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>05:10 AM</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>Fed Bostic Speech</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr"/>
+      <c r="D1549" t="inlineStr"/>
+      <c r="E1549" t="inlineStr"/>
+      <c r="F1549" t="inlineStr"/>
+      <c r="G1549" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
